--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Desktop\eps-1.2.0-rc1_Poland\InputData\elec\MPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgutowski\Desktop\EPS do uzupełnienia\Poland Input Data Needing Update - notatka\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="410" windowWidth="22760" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Start Year Capacity" sheetId="4" r:id="rId2"/>
     <sheet name="CSP" sheetId="5" r:id="rId3"/>
     <sheet name="MPCbS" sheetId="3" r:id="rId4"/>
+    <sheet name="Offshore wind potential" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CSP!$H$1:$K$50</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
   <si>
     <t>Source:</t>
   </si>
@@ -509,12 +510,84 @@
   <si>
     <t>take capacity factors from the US to convert energy to capacity.</t>
   </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>http://mckinsey.pl/wp-content/uploads/2016/10/McKinsey_Developing-offshore-wind-power-in-Poland_fullreport.pdf</t>
+  </si>
+  <si>
+    <t>economic potential until 2050</t>
+  </si>
+  <si>
+    <t>GW</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Biorąc pod uwagę cały potencjał rynkowy, obecny potencjał energetyczny wiatru wykorzystujemy w niewielkim procencie. Do roku 2020 istnieje szansa na wykorzystanie aż 30 proc. potencjału rynkowego. Analiza danych zgromadzonych przez Urząd Regulacji Energetyki oraz Polskie Stowarzyszenie Energetyki Wiatrowej wykazuje, że w teorii potencjał energii wiatru w naszym kraju mógłby wynieść </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nieco ponad 2 000 TWh na lądzie i około 400 TWh na morzu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Jednak w praktyce, biorąc pod uwagę zarówno możliwości techniczne oraz ekonomiczne, a także fakt, że użyteczna jest jedynie 1/4 potencjalnych zasobów energii wiatru, do 2020 roku z lądowych elektrowni wiatrowych prawdopodobna produkcja może wynieść jedynie 105 TWh. Choć nie jest to duża wartość na tle całkowitego zapotrzebowania energetycznego naszego kraju, to i tak daleko nam do jej osiągnięcia.</t>
+    </r>
+  </si>
+  <si>
+    <t>assumption:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">economic potential </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>»</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> technical potential * 10%</t>
+    </r>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +633,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -590,7 +685,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -613,12 +708,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Procentowy" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -650,7 +748,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1"/>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -688,7 +792,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Obraz 2"/>
+        <xdr:cNvPr id="3" name="Obraz 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -715,9 +825,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -755,7 +865,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -790,6 +900,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -825,9 +952,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1003,21 +1147,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="60.81640625" customWidth="1"/>
+    <col min="2" max="2" width="60.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,122 +1169,122 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>2008</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -1164,15 +1308,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="6"/>
+    <col min="3" max="3" width="25.44140625" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="8.77734375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1183,7 +1327,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -1212,7 +1356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1240,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1254,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
@@ -1268,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1296,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1310,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1324,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1352,13 +1496,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1378,7 +1522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1396,7 +1540,7 @@
         <v>28748</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1414,7 +1558,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1435,7 +1579,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1455,7 +1599,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1617,7 @@
         <v>207600</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H7">
         <v>34</v>
       </c>
@@ -1487,7 +1631,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H8">
         <v>27</v>
       </c>
@@ -1498,7 +1642,7 @@
         <v>51129</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H9">
         <v>16</v>
       </c>
@@ -1509,7 +1653,7 @@
         <v>110910</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H10">
         <v>26</v>
       </c>
@@ -1520,7 +1664,7 @@
         <v>56594</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H11">
         <v>21</v>
       </c>
@@ -1534,7 +1678,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H12">
         <v>30</v>
       </c>
@@ -1551,7 +1695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H13">
         <v>29</v>
       </c>
@@ -1565,7 +1709,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H14">
         <v>8</v>
       </c>
@@ -1582,7 +1726,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H15">
         <v>3</v>
       </c>
@@ -1599,7 +1743,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H16">
         <v>49</v>
       </c>
@@ -1610,7 +1754,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H17">
         <v>7</v>
       </c>
@@ -1624,7 +1768,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H18">
         <v>15</v>
       </c>
@@ -1635,7 +1779,7 @@
         <v>131940</v>
       </c>
     </row>
-    <row r="19" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H19">
         <v>18</v>
       </c>
@@ -1649,7 +1793,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H20">
         <v>17</v>
       </c>
@@ -1663,7 +1807,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H21">
         <v>10</v>
       </c>
@@ -1677,7 +1821,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H22">
         <v>14</v>
       </c>
@@ -1691,7 +1835,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H23">
         <v>40</v>
       </c>
@@ -1705,7 +1849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H24">
         <v>25</v>
       </c>
@@ -1716,7 +1860,7 @@
         <v>64589</v>
       </c>
     </row>
-    <row r="25" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H25">
         <v>45</v>
       </c>
@@ -1727,7 +1871,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H26">
         <v>24</v>
       </c>
@@ -1738,7 +1882,7 @@
         <v>65300</v>
       </c>
     </row>
-    <row r="27" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H27">
         <v>42</v>
       </c>
@@ -1749,7 +1893,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="28" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H28">
         <v>44</v>
       </c>
@@ -1760,7 +1904,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="29" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H29">
         <v>33</v>
       </c>
@@ -1771,7 +1915,7 @@
         <v>33846</v>
       </c>
     </row>
-    <row r="30" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>47</v>
       </c>
@@ -1782,7 +1926,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="31" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>39</v>
       </c>
@@ -1793,7 +1937,7 @@
         <v>13812</v>
       </c>
     </row>
-    <row r="32" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H32">
         <v>32</v>
       </c>
@@ -1810,7 +1954,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H33">
         <v>6</v>
       </c>
@@ -1827,7 +1971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H34">
         <v>9</v>
       </c>
@@ -1841,7 +1985,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H35">
         <v>19</v>
       </c>
@@ -1855,7 +1999,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H36">
         <v>23</v>
       </c>
@@ -1866,7 +2010,7 @@
         <v>70273</v>
       </c>
     </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H37">
         <v>36</v>
       </c>
@@ -1877,7 +2021,7 @@
         <v>25713</v>
       </c>
     </row>
-    <row r="38" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H38">
         <v>12</v>
       </c>
@@ -1888,7 +2032,7 @@
         <v>238392</v>
       </c>
     </row>
-    <row r="39" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H39">
         <v>1</v>
       </c>
@@ -1902,7 +2046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H40">
         <v>46</v>
       </c>
@@ -1913,7 +2057,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H41">
         <v>22</v>
       </c>
@@ -1927,7 +2071,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H42">
         <v>28</v>
       </c>
@@ -1941,7 +2085,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H43">
         <v>38</v>
       </c>
@@ -1955,7 +2099,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H44">
         <v>4</v>
       </c>
@@ -1972,7 +2116,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H45">
         <v>5</v>
       </c>
@@ -1986,7 +2130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H46">
         <v>31</v>
       </c>
@@ -2000,7 +2144,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H47">
         <v>37</v>
       </c>
@@ -2017,7 +2161,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H48">
         <v>2</v>
       </c>
@@ -2031,7 +2175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H49">
         <v>11</v>
       </c>
@@ -2045,7 +2189,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="8:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H50">
         <v>48</v>
       </c>
@@ -2126,19 +2270,19 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2146,7 +2290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +2299,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2164,7 +2308,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2173,7 +2317,7 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2182,7 +2326,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2191,7 +2335,7 @@
         <v>620000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2199,7 +2343,7 @@
         <v>290300</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2352,7 @@
         <v>299131.00480817101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2216,7 +2360,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2224,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2233,17 +2377,338 @@
         <v>9000000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="4">
         <f>9*10^12</f>
         <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B2</f>
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14">
+        <f>'Offshore wind potential'!A18</f>
+        <v>124000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>10*A2</f>
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>MPCbS!B6*400/2000</f>
+        <v>124000</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A5:R16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>